--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1552.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1552.xlsx
@@ -354,10 +354,10 @@
         <v>1.483693942805988</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.24867403858076</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1552.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1552.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.086894652908144</v>
+        <v>1.628386378288269</v>
       </c>
       <c r="B1">
-        <v>1.483693942805988</v>
+        <v>3.313309192657471</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.037763595581055</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.295402765274048</v>
       </c>
       <c r="E1">
-        <v>1.24867403858076</v>
+        <v>0.7466388940811157</v>
       </c>
     </row>
   </sheetData>
